--- a/biology/Botanique/May-Éliane_de_Lencquesaing/May-Éliane_de_Lencquesaing.xlsx
+++ b/biology/Botanique/May-Éliane_de_Lencquesaing/May-Éliane_de_Lencquesaing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>May-%C3%89liane_de_Lencquesaing</t>
+          <t>May-Éliane_de_Lencquesaing</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">May-Éliane de Lencquesaing, née Marie Marguerite Eliane Miailhe le 17 mai 1925 à Bordeaux, est une viticultrice française. Elle est, pendant plus de 30 ans, la propriétaire et la directrice du domaine viticole de Pauillac Château Pichon Longueville Comtesse de Lalande[1],[2].
-Elle épouse en 1948 le capitaine Henri de Lencquesaing, avec qui elle a quatre enfants[3].
-Après un partage du patrimoine familial en 1978, à la suite d'un heureux tirage au sort, May-Éliane hérite de parts du domaine et fait l'acquisition du reste. Au fil des ans, elle démontre ses compétences à la tête du Pichon Comtesse et est nommée comme ambassadrice des vins de Bordeaux[4],[5]. En 1994, elle est élue "Femme de l'année" par la revue anglaise Decanter spécialisée dans les vins.
-Elle crée en 2003 le domaine Glenelly en Afrique du Sud, sur une propriété fruitière. Toujours géré par sa fondatrice, ce viticole phare compte 120 employés en 2022[3].
-En 2007, elle décide de transmettre son vignoble à la Maison de Champagne Louis Roederer[6]. Elle est élevée au rang d'officier de la Légion d’Honneur en 2011[7].
-Elle vit à Blonay, dans le canton de Vaud, en Suisse, depuis la vente de son domaine bordelais[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">May-Éliane de Lencquesaing, née Marie Marguerite Eliane Miailhe le 17 mai 1925 à Bordeaux, est une viticultrice française. Elle est, pendant plus de 30 ans, la propriétaire et la directrice du domaine viticole de Pauillac Château Pichon Longueville Comtesse de Lalande,.
+Elle épouse en 1948 le capitaine Henri de Lencquesaing, avec qui elle a quatre enfants.
+Après un partage du patrimoine familial en 1978, à la suite d'un heureux tirage au sort, May-Éliane hérite de parts du domaine et fait l'acquisition du reste. Au fil des ans, elle démontre ses compétences à la tête du Pichon Comtesse et est nommée comme ambassadrice des vins de Bordeaux,. En 1994, elle est élue "Femme de l'année" par la revue anglaise Decanter spécialisée dans les vins.
+Elle crée en 2003 le domaine Glenelly en Afrique du Sud, sur une propriété fruitière. Toujours géré par sa fondatrice, ce viticole phare compte 120 employés en 2022.
+En 2007, elle décide de transmettre son vignoble à la Maison de Champagne Louis Roederer. Elle est élevée au rang d'officier de la Légion d’Honneur en 2011.
+Elle vit à Blonay, dans le canton de Vaud, en Suisse, depuis la vente de son domaine bordelais.
 </t>
         </is>
       </c>
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>May-%C3%89liane_de_Lencquesaing</t>
+          <t>May-Éliane_de_Lencquesaing</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,10 +528,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officière de la Légion d'honneur par décret du 22 avril 2011[8].
- Chevalière de la Légion d'honneur par décret du 12 juillet 1996[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officière de la Légion d'honneur par décret du 22 avril 2011.
+ Chevalière de la Légion d'honneur par décret du 12 juillet 1996.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>May-%C3%89liane_de_Lencquesaing</t>
+          <t>May-Éliane_de_Lencquesaing</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Avec David Haziot, Château Pichon-Longueville, comtesse de Lalande: la passion du vin, La Martinière, 2007 (ISBN 978-2-7324-3489-6, OCLC 471006493).
 Avec Pierre Chaveau, "Vivant, je suis!", dit le vin: conte pour grandes personnes : la belle histoire du vin de la barrique au verre, Art &amp; arts éd., 2002 (ISBN 978-2-911059-18-6, OCLC 470270466).
